--- a/ssc/ssc-kafka.xlsx
+++ b/ssc/ssc-kafka.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15120" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>########################### Topics &amp; Partitions &amp; Consumer Groups ###########################</t>
   </si>
@@ -30,26 +31,6 @@
     <t>2. Event as Topic</t>
   </si>
   <si>
-    <t>USER-SIGNUP-AUTH-SENDMAIL-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER-SIGNUP-FND-CREATION-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST-CREATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST-CREATE-POFO-HASHTAG-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST-CREATE-POFO-NOTIF-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TOPIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,51 +59,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER-UPDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST-CREATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST-CREATE-SOLV-NOTIF-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST-COMMENT-CREATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST-COMMENT-CREATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST-COMMENT-CREATE-POFO-NOTIF-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST-COMMENT-CREATE-SOLV-NOTIF-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER-SIGNUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER-UPDATE-FND-VERIFY-PROFILE-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST-CREATE-FND-TAG-INCR-GROUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST-REPLY-CREATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST-REPLY-CREATE-SOLV-NOTIF-GROUP</t>
+    <t>SSC-USER-SIGNUP-AUTH-SENDMAIL-GROUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parititions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-user-signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-user-update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-post-create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-post-comment-create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-quest-create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-quest-reply-create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-quest-comment-create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-user-signup-fnd-creation-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-user-update-fnd-verify-profile-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-post-create-pofo-hashtag-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-post-create-pofo-notif-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-post-comment-create-pofo-notif-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-quest-create-solv-notif-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-quest-create-fnd-tag-incr-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-quest-reply-create-solv-notif-group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc-quest-comment-create-solv-notif-group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +169,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,25 +352,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -350,29 +406,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,475 +718,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="D10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C11" s="13">
+        <v>8</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C13" s="4">
+        <v>12</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="3">
+        <v>8</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" ht="18" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" ht="18" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" ht="18" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="18" customHeight="1"/>
+      <c r="C17" s="4">
+        <v>12</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="18" customHeight="1">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="18" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" ht="18" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="18" customHeight="1"/>
     <row r="49" ht="18" customHeight="1"/>
     <row r="50" ht="18" customHeight="1"/>
     <row r="51" ht="18" customHeight="1"/>
@@ -1145,24 +1254,27 @@
     <row r="54" ht="15.95" customHeight="1"/>
     <row r="55" ht="15.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C7:F7"/>
+  <mergeCells count="20">
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
